--- a/java/ExcelPoi/src/bu/resorces/test.xlsx
+++ b/java/ExcelPoi/src/bu/resorces/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prog\GitHub\bc.ac.kr\java\ExcelPoi\src\bu\resorces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{087F1D94-C12E-40C1-99D4-13F3BF6E64BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D7AE6-0B95-4B48-9C1D-9C987E00D355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3848" yWindow="698" windowWidth="16200" windowHeight="9847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4642" yWindow="2858" windowWidth="16200" windowHeight="9847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,19 +39,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>송경훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김도균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상호</t>
+    <t>김예진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송승현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -401,32 +397,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
